--- a/server/src/templates/tutorial_center_template.xlsx
+++ b/server/src/templates/tutorial_center_template.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="補習班資料" sheetId="1" r:id="rId1"/>
+    <sheet name="填寫說明" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,32 +411,36 @@
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" customWidth="1"/>
     <col min="8" max="8" width="40.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>補習班名稱</v>
+        <v>補習班名稱*</v>
       </c>
       <c r="B1" t="str">
-        <v>電話</v>
+        <v>電話*</v>
       </c>
       <c r="C1" t="str">
-        <v>縣市</v>
+        <v>縣市*</v>
       </c>
       <c r="D1" t="str">
-        <v>區域</v>
+        <v>區域*</v>
       </c>
       <c r="E1" t="str">
         <v>地址</v>
       </c>
       <c r="F1" t="str">
-        <v>聯繫人</v>
+        <v>聯繫人*</v>
       </c>
       <c r="G1" t="str">
         <v>Email</v>
       </c>
       <c r="H1" t="str">
         <v>備註</v>
+      </c>
+      <c r="I1" t="str">
+        <v>狀態</v>
       </c>
     </row>
     <row r="2">
@@ -463,10 +468,144 @@
       <c r="H2" t="str">
         <v>對國中數理班有興趣</v>
       </c>
+      <c r="I2" t="str">
+        <v>新名單</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>松山數學專門班</v>
+      </c>
+      <c r="B3" t="str">
+        <v>02-2756-6666</v>
+      </c>
+      <c r="C3" t="str">
+        <v>台北市</v>
+      </c>
+      <c r="D3" t="str">
+        <v>松山區</v>
+      </c>
+      <c r="E3" t="str">
+        <v>松山路456號</v>
+      </c>
+      <c r="F3" t="str">
+        <v>李老師</v>
+      </c>
+      <c r="G3" t="str">
+        <v>math.pro@example.com</v>
+      </c>
+      <c r="H3" t="str">
+        <v>希望合作開設高中數學班</v>
+      </c>
+      <c r="I3" t="str">
+        <v>有意願</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="60.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>欄位說明</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>1. 標記 * 的欄位為必填項</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2. 電話格式：市話或手機號碼</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>3. 縣市可選值：台北市、新北市</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>4. 區域必須與縣市對應</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>5. Email 格式必須正確</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>6. 狀態可選值：</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v xml:space="preserve">   - 新名單</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v xml:space="preserve">   - 有意願</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v xml:space="preserve">   - 考慮中</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v xml:space="preserve">   - 無意願</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v xml:space="preserve">   - 未撥通</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v xml:space="preserve">   - 不相關</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v xml:space="preserve">   - 忙碌中</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v xml:space="preserve">   - 約訪</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v xml:space="preserve">   - 已洽談開班</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v xml:space="preserve">   - 空號</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:A17"/>
   </ignoredErrors>
 </worksheet>
 </file>